--- a/resolved_issues.xlsx
+++ b/resolved_issues.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +415,9 @@
       <c r="D1" t="str">
         <v>assignee</v>
       </c>
+      <c r="E1" t="str">
+        <v>Status</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -429,6 +432,9 @@
       <c r="D2" t="str">
         <v>Amit Meshram</v>
       </c>
+      <c r="E2" t="str">
+        <v>DONE</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -443,10 +449,30 @@
       <c r="D3" t="str">
         <v>Prem Patel</v>
       </c>
+      <c r="E3" t="str">
+        <v>PENDING</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ENG-104</v>
+      </c>
+      <c r="B4" t="str">
+        <v>NOTHING</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-11-07T09:15:00Z</v>
+      </c>
+      <c r="D4" t="str">
+        <v>PIYUSH SAINI</v>
+      </c>
+      <c r="E4" t="str">
+        <v>DONE</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>